--- a/Xports/UD_French-PUD/VERB-no-direct-obj.xlsx
+++ b/Xports/UD_French-PUD/VERB-no-direct-obj.xlsx
@@ -57732,7 +57732,7 @@
         <v>4136</v>
       </c>
       <c r="O956">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="957" spans="1:15">
@@ -59706,7 +59706,7 @@
         <v>4137</v>
       </c>
       <c r="O998">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999" spans="1:15">
@@ -61022,7 +61022,7 @@
         <v>4136</v>
       </c>
       <c r="O1026">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1027" spans="1:15">
